--- a/biology/Médecine/Antoine_Fizes/Antoine_Fizes.xlsx
+++ b/biology/Médecine/Antoine_Fizes/Antoine_Fizes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antoine Fizes, né à Montpellier le 19 juillet 1689[1] où il est mort le 13 août 1765[2], est un médecin français, fils de Nicolas Fizes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine Fizes, né à Montpellier le 19 juillet 1689 où il est mort le 13 août 1765, est un médecin français, fils de Nicolas Fizes.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antoine Fizes est parrain le 4 octobre 1730 à Clermont-l'Hérault de son neveu Antoine Nicolas Fizes[3]. Il est présenté comme conseiller du Roi et professeur royal de mathématiques de Montpellier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine Fizes est parrain le 4 octobre 1730 à Clermont-l'Hérault de son neveu Antoine Nicolas Fizes. Il est présenté comme conseiller du Roi et professeur royal de mathématiques de Montpellier.
 Élève de Joseph Guichard Duverney et de Antoine de Jussieu à Paris, il concourt en 1737 avec Antoine Ferrein pour une chaire libre à Montpellier et y est nommé alors que les juges avaient désigné son rival. 
-Praticien reconnu, il devient en 1763 le médecin du duc d'Orléans et gagne Paris. Mais, ne parlant que le latin et le languedocien[4], il est moqué par la cour et s'en retourne à Montpellier pour enseigner et pratiquer la médecine. 
+Praticien reconnu, il devient en 1763 le médecin du duc d'Orléans et gagne Paris. Mais, ne parlant que le latin et le languedocien, il est moqué par la cour et s'en retourne à Montpellier pour enseigner et pratiquer la médecine. 
 On lui doit des ouvrages de physiologie et de médecine dont les plus connus sont De cataractâ (1731) et De febribus (1749).
 </t>
         </is>
